--- a/testData/TC001.xlsx
+++ b/testData/TC001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master\projectname\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079188C-217D-4077-8FB2-1AE9B6173831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1F61E-EC7A-493D-AADC-5F131A138C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5CAB7B6-5F4B-49FD-AC30-95E6FDBB2BC9}"/>
   </bookViews>
@@ -33,7 +33,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>testdemo</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -44,50 +62,15 @@
     <t>hari.radhakrishnan@qeagle.com</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>testdemo</t>
-  </si>
-  <si>
-    <t>testdata</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>India$321</t>
+    <t>Testleaf$321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,13 +105,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D9A8E-ED21-4FD2-9379-8C8B8E278DD9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,62 +439,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F5A37429-7FC6-4A4B-AA37-4FD4D19DA354}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{751CC072-2E1B-40A5-A812-472EBA3F036A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8D0BBDF8-246A-491D-8814-DE31970B3780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>